--- a/examples/analytical/POC1G/model_parsing_diagnostics.POC1G.xlsx
+++ b/examples/analytical/POC1G/model_parsing_diagnostics.POC1G.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>label</t>
   </si>
@@ -47,7 +47,7 @@
     <t>role</t>
   </si>
   <si>
-    <t>species_modelled</t>
+    <t>formula</t>
   </si>
   <si>
     <t>codename</t>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>reactant</t>
+  </si>
+  <si>
+    <t>POC,</t>
   </si>
   <si>
     <t>solid</t>
@@ -553,23 +556,23 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -587,18 +590,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -619,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -643,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -669,50 +672,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -730,21 +733,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>

--- a/examples/analytical/POC1G/model_parsing_diagnostics.POC1G.xlsx
+++ b/examples/analytical/POC1G/model_parsing_diagnostics.POC1G.xlsx
@@ -16,9 +16,10 @@
     <sheet name="species_in_model" sheetId="1" r:id="rId1"/>
     <sheet name="species_extra" r:id="rId5" sheetId="2"/>
     <sheet name="elements_in_reactions" r:id="rId6" sheetId="3"/>
-    <sheet name="reaction_dependency" r:id="rId7" sheetId="4"/>
-    <sheet name="transport_parameters" r:id="rId8" sheetId="5"/>
-    <sheet name="reaction_parameters" r:id="rId9" sheetId="6"/>
+    <sheet name="speciation" r:id="rId7" sheetId="4"/>
+    <sheet name="reaction_dependency" r:id="rId8" sheetId="5"/>
+    <sheet name="transport_parameters" r:id="rId9" sheetId="6"/>
+    <sheet name="reaction_parameters" r:id="rId10" sheetId="7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>label</t>
   </si>
@@ -83,9 +84,6 @@
     <t>reactant</t>
   </si>
   <si>
-    <t>POC,</t>
-  </si>
-  <si>
     <t>solid</t>
   </si>
   <si>
@@ -107,13 +105,19 @@
     <t>coef</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>formula_</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>dependence</t>
   </si>
   <si>
     <t>parameter</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>POCID</t>
@@ -556,23 +560,23 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -590,18 +594,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -634,6 +638,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -646,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -662,7 +699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -672,50 +709,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -723,7 +760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -733,21 +770,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
